--- a/test_data/易港金融.xlsx
+++ b/test_data/易港金融.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="17985" windowHeight="4905"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdf234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抵押标10168</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,13 +229,17 @@
   </si>
   <si>
     <t>CJJL_007</t>
+  </si>
+  <si>
+    <t>asdf1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,7 +416,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -451,7 +450,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
@@ -650,53 +648,53 @@
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -708,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -717,30 +715,30 @@
         <v>18519030808</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -752,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -761,30 +759,30 @@
         <v>18519030808</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -796,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -805,30 +803,30 @@
         <v>18519030808</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -840,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -849,30 +847,30 @@
         <v>18519030808</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -884,7 +882,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -893,30 +891,30 @@
         <v>18519030808</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
@@ -928,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -937,30 +935,30 @@
         <v>18519030808</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -972,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
@@ -981,25 +979,25 @@
         <v>18519030808</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1010,14 +1008,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1026,14 +1024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1041,14 +1039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,12 +1054,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1069,12 +1067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1082,14 +1080,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_data/易港金融.xlsx
+++ b/test_data/易港金融.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>案例所属交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>asdf1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18519030808</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +329,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,7 +639,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -639,7 +649,7 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="19.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
@@ -667,7 +677,7 @@
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -711,8 +721,8 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>18519030808</v>
+      <c r="G2" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>54</v>
@@ -755,8 +765,8 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1">
-        <v>18519030808</v>
+      <c r="G3" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>54</v>
@@ -799,8 +809,8 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
-        <v>18519030808</v>
+      <c r="G4" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>54</v>
@@ -843,8 +853,8 @@
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1">
-        <v>18519030808</v>
+      <c r="G5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>54</v>
@@ -887,8 +897,8 @@
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1">
-        <v>18519030808</v>
+      <c r="G6" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>54</v>
@@ -931,8 +941,8 @@
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1">
-        <v>18519030808</v>
+      <c r="G7" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>54</v>
@@ -975,8 +985,8 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1">
-        <v>18519030808</v>
+      <c r="G8" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>54</v>
